--- a/Q to Boil.xlsx
+++ b/Q to Boil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/ASE 6002 Portable Kettle/Components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/rgarcia46_gatech_edu/Documents/Documents/ASE6002/TA2/ASE6002PEK-main/ASE6002PEK-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{D10681A3-17E8-4E9B-B97D-DE7EC19F489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DA5C215-7EA6-4B0F-9799-8B62EA092EE5}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="570" windowWidth="25365" windowHeight="13080" xr2:uid="{663BD1A2-93FF-42B3-BC32-7BF716FE36A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{663BD1A2-93FF-42B3-BC32-7BF716FE36A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>B3*B4*(B6-B5)</f>
+        <f>fluid_mass*c_water*(set_temp-ambient_temp)</f>
         <v>271960</v>
       </c>
     </row>
